--- a/90_Vorlagen_Rondo/Vorlage Terminplan.xlsx
+++ b/90_Vorlagen_Rondo/Vorlage Terminplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rondoonline.sharepoint.com/sites/robrd/Freigegebene Dokumente/30_TD-PS Produkt Support/090_Konstrukteur Lernende/03_Diverse_Dokumente_Lernende/Janik Wyder/20_Bildungsjahr_2/Projekte/Eriz/Vorrichtung für Walze/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Pflanzenwagen\90_Vorlagen_Rondo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="409" documentId="11_9BF35501F110785E69FF3FE3C797AC5077298CC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CEB272-3569-4FD4-B927-AAF3ED2205B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E8909-933B-401C-9807-2758E8B9B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,20 +1058,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1103,7 +1100,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1112,129 +1108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1259,8 +1136,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1278,9 +1153,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1316,11 +1190,124 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6156,10 +6143,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO51"/>
+  <dimension ref="B1:BF51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ27" sqref="BJ27:BO31"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6173,357 +6160,357 @@
   <sheetData>
     <row r="1" spans="2:50" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="101" t="s">
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="101" t="s">
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="101" t="s">
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="101" t="s">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="101" t="s">
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="101" t="s">
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="101" t="s">
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="101" t="s">
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="119"/>
+      <c r="AU2" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="103"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="119"/>
     </row>
     <row r="3" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79" t="s">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="77" t="s">
+      <c r="J3" s="134"/>
+      <c r="K3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79" t="s">
+      <c r="L3" s="137"/>
+      <c r="M3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79" t="s">
+      <c r="N3" s="137"/>
+      <c r="O3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="79" t="s">
+      <c r="P3" s="137"/>
+      <c r="Q3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="80"/>
-      <c r="S3" s="72" t="s">
+      <c r="R3" s="138"/>
+      <c r="S3" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="72" t="s">
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="72" t="s">
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="72" t="s">
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="72" t="s">
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="72" t="s">
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="72" t="s">
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AR3" s="72" t="s">
+      <c r="AR3" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AS3" s="72" t="s">
+      <c r="AS3" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="AT3" s="72" t="s">
+      <c r="AT3" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="AU3" s="72" t="s">
+      <c r="AU3" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="72" t="s">
+      <c r="AV3" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="72" t="s">
+      <c r="AW3" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="104" t="s">
+      <c r="AX3" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="69">
+      <c r="B4" s="135"/>
+      <c r="C4" s="129">
         <v>12</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70">
+      <c r="D4" s="129"/>
+      <c r="E4" s="131">
         <v>13</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70">
+      <c r="F4" s="131"/>
+      <c r="G4" s="131">
         <v>14</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70">
+      <c r="H4" s="131"/>
+      <c r="I4" s="131">
         <v>15</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="69">
+      <c r="J4" s="131"/>
+      <c r="K4" s="129">
         <v>20</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="70">
+      <c r="L4" s="130"/>
+      <c r="M4" s="131">
         <v>21</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="70">
+      <c r="N4" s="130"/>
+      <c r="O4" s="131">
         <v>22</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="70">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="131">
         <v>23</v>
       </c>
-      <c r="R4" s="84"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="100"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AX4" s="116"/>
     </row>
     <row r="5" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="94"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="123"/>
     </row>
     <row r="6" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="43"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="115"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="115"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="152"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="121"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="76"/>
     </row>
     <row r="7" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -6531,44 +6518,44 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="141"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="141"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="122"/>
-      <c r="AS7" s="118"/>
-      <c r="AT7" s="122"/>
-      <c r="AU7" s="118"/>
-      <c r="AV7" s="122"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="122"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="77"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="77"/>
     </row>
     <row r="8" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="19"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -6584,145 +6571,145 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="115"/>
-      <c r="AJ8" s="147"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="115"/>
-      <c r="AN8" s="147"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="152"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="121"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="70"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="70"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="76"/>
     </row>
     <row r="9" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="12"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="51"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="140"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="141"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="140"/>
-      <c r="AN9" s="95"/>
-      <c r="AO9" s="141"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="144"/>
-      <c r="AR9" s="122"/>
-      <c r="AS9" s="133"/>
-      <c r="AT9" s="122"/>
-      <c r="AU9" s="118"/>
-      <c r="AV9" s="122"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="122"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="77"/>
     </row>
     <row r="10" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="92"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="127"/>
     </row>
     <row r="11" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="142" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="16"/>
@@ -6732,50 +6719,50 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="43"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="152"/>
-      <c r="AE11" s="115"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="152"/>
-      <c r="AI11" s="115"/>
-      <c r="AJ11" s="147"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="152"/>
-      <c r="AM11" s="115"/>
-      <c r="AN11" s="147"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="152"/>
-      <c r="AQ11" s="142"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="132"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="121"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="76"/>
     </row>
     <row r="12" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -6783,8 +6770,8 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -6792,41 +6779,41 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="140"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="140"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="140"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="141"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="141"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="122"/>
-      <c r="AS12" s="118"/>
-      <c r="AT12" s="122"/>
-      <c r="AU12" s="118"/>
-      <c r="AV12" s="122"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="122"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="77"/>
     </row>
     <row r="13" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="128" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="8"/>
@@ -6845,41 +6832,41 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="115"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="115"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="152"/>
-      <c r="AM13" s="115"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="152"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="115"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="115"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="121"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="76"/>
     </row>
     <row r="14" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6887,8 +6874,8 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -6896,41 +6883,41 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="140"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="140"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="141"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="140"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="141"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="122"/>
-      <c r="AS14" s="118"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="118"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="122"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="77"/>
     </row>
     <row r="15" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="128" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8"/>
@@ -6949,41 +6936,41 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="152"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="152"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="49"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="115"/>
-      <c r="AJ15" s="147"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="152"/>
-      <c r="AM15" s="115"/>
-      <c r="AN15" s="147"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="152"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="115"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="121"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="76"/>
     </row>
     <row r="16" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6992,7 +6979,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="22"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -7000,41 +6987,41 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="141"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="141"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="140"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="141"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="143"/>
-      <c r="AR16" s="122"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="122"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="122"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="122"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="77"/>
     </row>
-    <row r="17" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+    <row r="17" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="128" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="8"/>
@@ -7053,41 +7040,41 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="115"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="152"/>
-      <c r="AE17" s="115"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="152"/>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="147"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="152"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="152"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="105"/>
-      <c r="AX17" s="121"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="76"/>
     </row>
-    <row r="18" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+    <row r="18" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="128"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7096,49 +7083,49 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="140"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="140"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="141"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="140"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="141"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="143"/>
-      <c r="AR18" s="122"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="122"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="122"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="122"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="77"/>
     </row>
-    <row r="19" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="128" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="8"/>
@@ -7157,41 +7144,41 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="145"/>
-      <c r="AO19" s="145"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="145"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="116"/>
-      <c r="AT19" s="128"/>
-      <c r="AU19" s="116"/>
-      <c r="AV19" s="128"/>
-      <c r="AW19" s="105"/>
-      <c r="AX19" s="121"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="97"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="97"/>
+      <c r="AR19" s="81"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="81"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="81"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="76"/>
     </row>
-    <row r="20" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
+    <row r="20" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="128"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7200,49 +7187,49 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="140"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="140"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="140"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="141"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="140"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="141"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="143"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="122"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="129"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="123"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="77"/>
     </row>
-    <row r="21" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64" t="s">
+    <row r="21" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="144" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="16"/>
@@ -7252,154 +7239,154 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="152"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="115"/>
-      <c r="AF21" s="147"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="147"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="152"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="147"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="152"/>
-      <c r="AQ21" s="142"/>
-      <c r="AR21" s="135"/>
-      <c r="AS21" s="132"/>
-      <c r="AT21" s="135"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="108"/>
-      <c r="AX21" s="124"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="76"/>
     </row>
-    <row r="22" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
+    <row r="22" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="144"/>
       <c r="C22" s="15"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="51"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="140"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="140"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="141"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="140"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="141"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="140"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="141"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="122"/>
-      <c r="AS22" s="133"/>
-      <c r="AT22" s="122"/>
-      <c r="AU22" s="118"/>
-      <c r="AV22" s="122"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="122"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="86"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="63"/>
+      <c r="AX22" s="77"/>
     </row>
-    <row r="23" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89" t="s">
+    <row r="23" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="91"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="91"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="90"/>
-      <c r="AT23" s="90"/>
-      <c r="AU23" s="91"/>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="92"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="121"/>
+      <c r="AS23" s="121"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="124"/>
+      <c r="AV23" s="124"/>
+      <c r="AW23" s="124"/>
+      <c r="AX23" s="127"/>
     </row>
-    <row r="24" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+    <row r="24" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="142" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="16"/>
@@ -7409,51 +7396,50 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="53"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="27"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="115"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="115"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="115"/>
-      <c r="AJ24" s="147"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="152"/>
-      <c r="AM24" s="115"/>
-      <c r="AN24" s="147"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="152"/>
-      <c r="AQ24" s="142"/>
-      <c r="AR24" s="121"/>
-      <c r="AS24" s="132"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="115"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="105"/>
-      <c r="AX24" s="121"/>
-      <c r="BN24" s="35"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="46"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="70"/>
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="85"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="70"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="76"/>
     </row>
-    <row r="25" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
+    <row r="25" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="128"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7462,7 +7448,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="44"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="22"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -7470,42 +7456,41 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="140"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="140"/>
-      <c r="AN25" s="95"/>
-      <c r="AO25" s="141"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="143"/>
-      <c r="AR25" s="122"/>
-      <c r="AS25" s="118"/>
-      <c r="AT25" s="122"/>
-      <c r="AU25" s="118"/>
-      <c r="AV25" s="122"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="122"/>
-      <c r="BN25" s="35"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="92"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="63"/>
+      <c r="AX25" s="77"/>
     </row>
-    <row r="26" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
+    <row r="26" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="128" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="8"/>
@@ -7524,47 +7509,45 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="152"/>
-      <c r="AA26" s="115"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="115"/>
-      <c r="AF26" s="147"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="115"/>
-      <c r="AJ26" s="147"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="152"/>
-      <c r="AM26" s="115"/>
-      <c r="AN26" s="147"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="152"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="121"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="121"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="121"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="99"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="99"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="76"/>
       <c r="AY26" s="2"/>
       <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
-      <c r="BL26" s="35"/>
-      <c r="BN26" s="35"/>
     </row>
-    <row r="27" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
+    <row r="27" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="128"/>
       <c r="C27" s="15"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -7572,111 +7555,103 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="140"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="96"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="96"/>
-      <c r="AM27" s="140"/>
-      <c r="AN27" s="95"/>
-      <c r="AO27" s="141"/>
-      <c r="AP27" s="96"/>
-      <c r="AQ27" s="144"/>
-      <c r="AR27" s="122"/>
-      <c r="AS27" s="133"/>
-      <c r="AT27" s="122"/>
-      <c r="AU27" s="118"/>
-      <c r="AV27" s="122"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="122"/>
-      <c r="BL27" s="35"/>
-      <c r="BN27" s="35"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="92"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="96"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="86"/>
+      <c r="AT27" s="77"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="77"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="77"/>
     </row>
-    <row r="28" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="89" t="s">
+    <row r="28" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
-      <c r="AO28" s="91"/>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="90"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="92"/>
-      <c r="BJ28" s="35"/>
-      <c r="BK28" s="35"/>
-      <c r="BL28" s="35"/>
-      <c r="BM28" s="35"/>
-      <c r="BN28" s="35"/>
-      <c r="BO28" s="35"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="124"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="124"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="124"/>
+      <c r="AN28" s="124"/>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="124"/>
+      <c r="AQ28" s="121"/>
+      <c r="AR28" s="121"/>
+      <c r="AS28" s="121"/>
+      <c r="AT28" s="121"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
+      <c r="AX28" s="127"/>
     </row>
-    <row r="29" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
+    <row r="29" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="144" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="16"/>
@@ -7686,56 +7661,50 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="43"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="152"/>
-      <c r="AA29" s="115"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="152"/>
-      <c r="AE29" s="115"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="152"/>
-      <c r="AI29" s="115"/>
-      <c r="AJ29" s="147"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="152"/>
-      <c r="AM29" s="115"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="152"/>
-      <c r="AQ29" s="142"/>
-      <c r="AR29" s="121"/>
-      <c r="AS29" s="132"/>
-      <c r="AT29" s="121"/>
-      <c r="AU29" s="115"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="105"/>
-      <c r="AX29" s="121"/>
-      <c r="BJ29" s="35"/>
-      <c r="BK29" s="35"/>
-      <c r="BL29" s="35"/>
-      <c r="BM29" s="35"/>
-      <c r="BN29" s="35"/>
-      <c r="BO29" s="35"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="46"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="70"/>
+      <c r="AN29" s="99"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="85"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="76"/>
     </row>
-    <row r="30" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
+    <row r="30" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="145"/>
       <c r="C30" s="15"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -7743,115 +7712,103 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="51"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="140"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="150"/>
-      <c r="V30" s="149"/>
-      <c r="W30" s="140"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="141"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="140"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="141"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="141"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="140"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="141"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="122"/>
-      <c r="AS30" s="133"/>
-      <c r="AT30" s="122"/>
-      <c r="AU30" s="118"/>
-      <c r="AV30" s="122"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="122"/>
-      <c r="BJ30" s="35"/>
-      <c r="BK30" s="35"/>
-      <c r="BL30" s="35"/>
-      <c r="BM30" s="35"/>
-      <c r="BN30" s="35"/>
-      <c r="BO30" s="35"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="61"/>
+      <c r="AM30" s="92"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="93"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="96"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="86"/>
+      <c r="AT30" s="77"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="63"/>
+      <c r="AX30" s="77"/>
     </row>
-    <row r="31" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+    <row r="31" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="91"/>
-      <c r="AJ31" s="91"/>
-      <c r="AK31" s="91"/>
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="91"/>
-      <c r="AN31" s="91"/>
-      <c r="AO31" s="91"/>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="90"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="92"/>
-      <c r="BJ31" s="35"/>
-      <c r="BK31" s="35"/>
-      <c r="BL31" s="35"/>
-      <c r="BM31" s="35"/>
-      <c r="BN31" s="35"/>
-      <c r="BO31" s="35"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="124"/>
+      <c r="T31" s="124"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="124"/>
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="124"/>
+      <c r="AK31" s="124"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="124"/>
+      <c r="AN31" s="124"/>
+      <c r="AO31" s="124"/>
+      <c r="AP31" s="124"/>
+      <c r="AQ31" s="121"/>
+      <c r="AR31" s="121"/>
+      <c r="AS31" s="121"/>
+      <c r="AT31" s="121"/>
+      <c r="AU31" s="124"/>
+      <c r="AV31" s="124"/>
+      <c r="AW31" s="124"/>
+      <c r="AX31" s="127"/>
     </row>
-    <row r="32" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66" t="s">
+    <row r="32" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="142" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="16"/>
@@ -7861,56 +7818,50 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="43"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="152"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="152"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="147"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="105"/>
-      <c r="AJ32" s="147"/>
-      <c r="AK32" s="147"/>
-      <c r="AL32" s="152"/>
-      <c r="AM32" s="105"/>
-      <c r="AN32" s="147"/>
-      <c r="AO32" s="147"/>
-      <c r="AP32" s="152"/>
-      <c r="AQ32" s="146"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="110"/>
-      <c r="AT32" s="121"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="121"/>
-      <c r="BJ32" s="35"/>
-      <c r="BK32" s="35"/>
-      <c r="BL32" s="35"/>
-      <c r="BM32" s="35"/>
-      <c r="BN32" s="35"/>
-      <c r="BO32" s="35"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="99"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="76"/>
     </row>
-    <row r="33" spans="2:67" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="67"/>
+    <row r="33" spans="2:53" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="128"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -7919,55 +7870,49 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="41"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="96"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="141"/>
-      <c r="AL33" s="96"/>
-      <c r="AM33" s="148"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="141"/>
-      <c r="AP33" s="96"/>
-      <c r="AQ33" s="143"/>
-      <c r="AR33" s="122"/>
-      <c r="AS33" s="118"/>
-      <c r="AT33" s="122"/>
-      <c r="AU33" s="118"/>
-      <c r="AV33" s="122"/>
-      <c r="AW33" s="109"/>
-      <c r="AX33" s="125"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="100"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="93"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="95"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="77"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="77"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="78"/>
     </row>
-    <row r="34" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="67" t="s">
+    <row r="34" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="128" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="8"/>
@@ -7986,42 +7931,41 @@
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="23"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="154"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="152"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="147"/>
-      <c r="AD34" s="152"/>
-      <c r="AE34" s="105"/>
-      <c r="AF34" s="147"/>
-      <c r="AG34" s="147"/>
-      <c r="AH34" s="152"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="147"/>
-      <c r="AK34" s="147"/>
-      <c r="AL34" s="152"/>
-      <c r="AM34" s="105"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="147"/>
-      <c r="AP34" s="152"/>
-      <c r="AQ34" s="147"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="105"/>
-      <c r="AT34" s="121"/>
-      <c r="AU34" s="105"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="105"/>
-      <c r="AX34" s="121"/>
-      <c r="BL34" s="35"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="76"/>
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="76"/>
     </row>
-    <row r="35" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="67"/>
+    <row r="35" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="128"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -8030,49 +7974,49 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="41"/>
+      <c r="K35" s="38"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="20"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="140"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="140"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="140"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="141"/>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="140"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="141"/>
-      <c r="AH35" s="96"/>
-      <c r="AI35" s="140"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="141"/>
-      <c r="AL35" s="96"/>
-      <c r="AM35" s="140"/>
-      <c r="AN35" s="149"/>
-      <c r="AO35" s="141"/>
-      <c r="AP35" s="96"/>
-      <c r="AQ35" s="143"/>
-      <c r="AR35" s="122"/>
-      <c r="AS35" s="118"/>
-      <c r="AT35" s="122"/>
-      <c r="AU35" s="118"/>
-      <c r="AV35" s="122"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="122"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="92"/>
+      <c r="AN35" s="101"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="95"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="77"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="77"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="77"/>
     </row>
-    <row r="36" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+    <row r="36" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="8"/>
@@ -8090,42 +8034,42 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="12"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="156"/>
-      <c r="V36" s="156"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="145"/>
-      <c r="Y36" s="145"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="145"/>
-      <c r="AC36" s="145"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="145"/>
-      <c r="AG36" s="145"/>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="145"/>
-      <c r="AK36" s="145"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="116"/>
-      <c r="AN36" s="145"/>
-      <c r="AO36" s="145"/>
-      <c r="AP36" s="50"/>
-      <c r="AQ36" s="145"/>
-      <c r="AR36" s="128"/>
-      <c r="AS36" s="116"/>
-      <c r="AT36" s="128"/>
-      <c r="AU36" s="116"/>
-      <c r="AV36" s="128"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="121"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="71"/>
+      <c r="AN36" s="97"/>
+      <c r="AO36" s="97"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="97"/>
+      <c r="AR36" s="81"/>
+      <c r="AS36" s="71"/>
+      <c r="AT36" s="81"/>
+      <c r="AU36" s="71"/>
+      <c r="AV36" s="81"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="76"/>
     </row>
-    <row r="37" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="67"/>
+    <row r="37" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="128"/>
       <c r="C37" s="15"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -8133,156 +8077,156 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="51"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="141"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="140"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="141"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="140"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="141"/>
-      <c r="AD37" s="96"/>
-      <c r="AE37" s="140"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="141"/>
-      <c r="AH37" s="96"/>
-      <c r="AI37" s="140"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="141"/>
-      <c r="AL37" s="96"/>
-      <c r="AM37" s="140"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="150"/>
-      <c r="AP37" s="151"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="129"/>
-      <c r="AS37" s="39"/>
-      <c r="AT37" s="129"/>
-      <c r="AU37" s="119"/>
-      <c r="AV37" s="129"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="122"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="92"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="93"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="92"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="102"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="82"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="82"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="82"/>
+      <c r="AW37" s="63"/>
+      <c r="AX37" s="77"/>
     </row>
-    <row r="38" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="89" t="s">
+    <row r="38" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="91"/>
-      <c r="AC38" s="91"/>
-      <c r="AD38" s="91"/>
-      <c r="AE38" s="91"/>
-      <c r="AF38" s="91"/>
-      <c r="AG38" s="91"/>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="91"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="91"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="91"/>
-      <c r="AO38" s="91"/>
-      <c r="AP38" s="91"/>
-      <c r="AQ38" s="90"/>
-      <c r="AR38" s="90"/>
-      <c r="AS38" s="90"/>
-      <c r="AT38" s="90"/>
-      <c r="AU38" s="98"/>
-      <c r="AV38" s="98"/>
-      <c r="AW38" s="98"/>
-      <c r="AX38" s="99"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="124"/>
+      <c r="T38" s="124"/>
+      <c r="U38" s="124"/>
+      <c r="V38" s="124"/>
+      <c r="W38" s="124"/>
+      <c r="X38" s="124"/>
+      <c r="Y38" s="124"/>
+      <c r="Z38" s="124"/>
+      <c r="AA38" s="124"/>
+      <c r="AB38" s="124"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="124"/>
+      <c r="AE38" s="124"/>
+      <c r="AF38" s="124"/>
+      <c r="AG38" s="124"/>
+      <c r="AH38" s="124"/>
+      <c r="AI38" s="124"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="124"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AN38" s="124"/>
+      <c r="AO38" s="124"/>
+      <c r="AP38" s="124"/>
+      <c r="AQ38" s="121"/>
+      <c r="AR38" s="121"/>
+      <c r="AS38" s="121"/>
+      <c r="AT38" s="121"/>
+      <c r="AU38" s="125"/>
+      <c r="AV38" s="125"/>
+      <c r="AW38" s="125"/>
+      <c r="AX38" s="126"/>
     </row>
-    <row r="39" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
+    <row r="39" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
       <c r="P39" s="17"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="115"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="152"/>
-      <c r="AA39" s="115"/>
-      <c r="AB39" s="147"/>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="152"/>
-      <c r="AE39" s="115"/>
-      <c r="AF39" s="147"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="152"/>
-      <c r="AI39" s="115"/>
-      <c r="AJ39" s="147"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="152"/>
-      <c r="AM39" s="116"/>
-      <c r="AN39" s="145"/>
-      <c r="AO39" s="145"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="138"/>
-      <c r="AR39" s="130"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="130"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="130"/>
-      <c r="AW39" s="110"/>
-      <c r="AX39" s="121"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="104"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="70"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="104"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="97"/>
+      <c r="AO39" s="97"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="90"/>
+      <c r="AR39" s="83"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="83"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="83"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="76"/>
     </row>
-    <row r="40" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="67"/>
+    <row r="40" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="128"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -8291,49 +8235,49 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="38"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="22"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="141"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="140"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="141"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="140"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="141"/>
-      <c r="AD40" s="96"/>
-      <c r="AE40" s="140"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="141"/>
-      <c r="AH40" s="96"/>
-      <c r="AI40" s="140"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="141"/>
-      <c r="AL40" s="96"/>
-      <c r="AM40" s="140"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="141"/>
-      <c r="AP40" s="96"/>
-      <c r="AQ40" s="143"/>
-      <c r="AR40" s="122"/>
-      <c r="AS40" s="118"/>
-      <c r="AT40" s="122"/>
-      <c r="AU40" s="114"/>
-      <c r="AV40" s="129"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="122"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="93"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="93"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="92"/>
+      <c r="AN40" s="60"/>
+      <c r="AO40" s="93"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="95"/>
+      <c r="AR40" s="77"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="77"/>
+      <c r="AU40" s="69"/>
+      <c r="AV40" s="82"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="77"/>
     </row>
-    <row r="41" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="67" t="s">
+    <row r="41" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="128" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="8"/>
@@ -8349,44 +8293,44 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="28"/>
-      <c r="P41" s="29"/>
+      <c r="P41" s="9"/>
       <c r="Q41" s="28"/>
-      <c r="R41" s="136"/>
-      <c r="S41" s="115"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="157"/>
-      <c r="X41" s="145"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="152"/>
-      <c r="AA41" s="115"/>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="49"/>
-      <c r="AD41" s="152"/>
-      <c r="AE41" s="115"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="49"/>
-      <c r="AH41" s="152"/>
-      <c r="AI41" s="115"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="49"/>
-      <c r="AL41" s="152"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="145"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="121"/>
-      <c r="AS41" s="115"/>
-      <c r="AT41" s="121"/>
-      <c r="AU41" s="115"/>
-      <c r="AV41" s="121"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="121"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="99"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="70"/>
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="104"/>
+      <c r="AI41" s="70"/>
+      <c r="AJ41" s="99"/>
+      <c r="AK41" s="46"/>
+      <c r="AL41" s="104"/>
+      <c r="AM41" s="71"/>
+      <c r="AN41" s="97"/>
+      <c r="AO41" s="97"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="70"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="70"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="76"/>
     </row>
-    <row r="42" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="67"/>
+    <row r="42" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="128"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -8395,49 +8339,49 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="41"/>
+      <c r="K42" s="38"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="20"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="140"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="141"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="140"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="141"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="140"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="141"/>
-      <c r="AD42" s="96"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="141"/>
-      <c r="AH42" s="96"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="141"/>
-      <c r="AL42" s="96"/>
-      <c r="AM42" s="140"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="150"/>
-      <c r="AP42" s="96"/>
-      <c r="AQ42" s="143"/>
-      <c r="AR42" s="122"/>
-      <c r="AS42" s="118"/>
-      <c r="AT42" s="122"/>
-      <c r="AU42" s="114"/>
-      <c r="AV42" s="131"/>
-      <c r="AW42" s="106"/>
-      <c r="AX42" s="122"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="92"/>
+      <c r="AJ42" s="60"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="60"/>
+      <c r="AO42" s="102"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="95"/>
+      <c r="AR42" s="77"/>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="77"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="84"/>
+      <c r="AW42" s="63"/>
+      <c r="AX42" s="77"/>
     </row>
-    <row r="43" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="67" t="s">
+    <row r="43" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="128" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="8"/>
@@ -8456,41 +8400,41 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="115"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="147"/>
-      <c r="W43" s="115"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="115"/>
-      <c r="AB43" s="147"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="152"/>
-      <c r="AE43" s="115"/>
-      <c r="AF43" s="147"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="152"/>
-      <c r="AI43" s="115"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="49"/>
-      <c r="AL43" s="152"/>
-      <c r="AM43" s="115"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="152"/>
-      <c r="AQ43" s="145"/>
-      <c r="AR43" s="128"/>
-      <c r="AS43" s="116"/>
-      <c r="AT43" s="128"/>
-      <c r="AU43" s="115"/>
-      <c r="AV43" s="121"/>
-      <c r="AW43" s="105"/>
-      <c r="AX43" s="121"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="99"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="99"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="70"/>
+      <c r="AJ43" s="99"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="70"/>
+      <c r="AN43" s="99"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="104"/>
+      <c r="AQ43" s="97"/>
+      <c r="AR43" s="81"/>
+      <c r="AS43" s="71"/>
+      <c r="AT43" s="81"/>
+      <c r="AU43" s="70"/>
+      <c r="AV43" s="76"/>
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="76"/>
     </row>
-    <row r="44" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="67"/>
+    <row r="44" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="128"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -8499,49 +8443,49 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="41"/>
+      <c r="K44" s="38"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="20"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="140"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="141"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="140"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="141"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="140"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="141"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="140"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="141"/>
-      <c r="AH44" s="96"/>
-      <c r="AI44" s="140"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="141"/>
-      <c r="AL44" s="96"/>
-      <c r="AM44" s="140"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="141"/>
-      <c r="AP44" s="96"/>
-      <c r="AQ44" s="143"/>
-      <c r="AR44" s="122"/>
-      <c r="AS44" s="118"/>
-      <c r="AT44" s="122"/>
-      <c r="AU44" s="114"/>
-      <c r="AV44" s="129"/>
-      <c r="AW44" s="111"/>
-      <c r="AX44" s="126"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="93"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="92"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="93"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="92"/>
+      <c r="AJ44" s="60"/>
+      <c r="AK44" s="93"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="92"/>
+      <c r="AN44" s="60"/>
+      <c r="AO44" s="93"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="95"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="77"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="82"/>
+      <c r="AW44" s="66"/>
+      <c r="AX44" s="79"/>
     </row>
-    <row r="45" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="68" t="s">
+    <row r="45" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8"/>
@@ -8560,41 +8504,41 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="115"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="115"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="152"/>
-      <c r="AA45" s="115"/>
-      <c r="AB45" s="147"/>
-      <c r="AC45" s="49"/>
-      <c r="AD45" s="152"/>
-      <c r="AE45" s="115"/>
-      <c r="AF45" s="147"/>
-      <c r="AG45" s="49"/>
-      <c r="AH45" s="152"/>
-      <c r="AI45" s="115"/>
-      <c r="AJ45" s="147"/>
-      <c r="AK45" s="49"/>
-      <c r="AL45" s="152"/>
-      <c r="AM45" s="115"/>
-      <c r="AN45" s="147"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="152"/>
-      <c r="AQ45" s="139"/>
-      <c r="AR45" s="130"/>
-      <c r="AS45" s="116"/>
-      <c r="AT45" s="128"/>
-      <c r="AU45" s="116"/>
-      <c r="AV45" s="128"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="127"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="46"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="46"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="91"/>
+      <c r="AR45" s="83"/>
+      <c r="AS45" s="71"/>
+      <c r="AT45" s="81"/>
+      <c r="AU45" s="71"/>
+      <c r="AV45" s="81"/>
+      <c r="AW45" s="62"/>
+      <c r="AX45" s="80"/>
     </row>
-    <row r="46" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
+    <row r="46" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="145"/>
       <c r="C46" s="15"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -8602,107 +8546,107 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="51"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="48"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="140"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="141"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="140"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="141"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="140"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="95"/>
-      <c r="AG46" s="141"/>
-      <c r="AH46" s="96"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="141"/>
-      <c r="AL46" s="96"/>
-      <c r="AM46" s="140"/>
-      <c r="AN46" s="95"/>
-      <c r="AO46" s="141"/>
-      <c r="AP46" s="96"/>
-      <c r="AQ46" s="144"/>
-      <c r="AR46" s="122"/>
-      <c r="AS46" s="133"/>
-      <c r="AT46" s="122"/>
-      <c r="AU46" s="117"/>
-      <c r="AV46" s="129"/>
-      <c r="AW46" s="106"/>
-      <c r="AX46" s="122"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="92"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="93"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="92"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="93"/>
+      <c r="AL46" s="61"/>
+      <c r="AM46" s="92"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="93"/>
+      <c r="AP46" s="61"/>
+      <c r="AQ46" s="96"/>
+      <c r="AR46" s="77"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="77"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="82"/>
+      <c r="AW46" s="63"/>
+      <c r="AX46" s="77"/>
     </row>
-    <row r="47" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="89" t="s">
+    <row r="47" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="91"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="91"/>
-      <c r="AC47" s="91"/>
-      <c r="AD47" s="91"/>
-      <c r="AE47" s="91"/>
-      <c r="AF47" s="91"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
-      <c r="AL47" s="91"/>
-      <c r="AM47" s="91"/>
-      <c r="AN47" s="91"/>
-      <c r="AO47" s="91"/>
-      <c r="AP47" s="91"/>
-      <c r="AQ47" s="90"/>
-      <c r="AR47" s="90"/>
-      <c r="AS47" s="90"/>
-      <c r="AT47" s="90"/>
-      <c r="AU47" s="90"/>
-      <c r="AV47" s="90"/>
-      <c r="AW47" s="98"/>
-      <c r="AX47" s="99"/>
-      <c r="AZ47" s="30"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="124"/>
+      <c r="T47" s="124"/>
+      <c r="U47" s="124"/>
+      <c r="V47" s="124"/>
+      <c r="W47" s="124"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="124"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="124"/>
+      <c r="AC47" s="124"/>
+      <c r="AD47" s="124"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="124"/>
+      <c r="AG47" s="124"/>
+      <c r="AH47" s="124"/>
+      <c r="AI47" s="124"/>
+      <c r="AJ47" s="124"/>
+      <c r="AK47" s="124"/>
+      <c r="AL47" s="124"/>
+      <c r="AM47" s="124"/>
+      <c r="AN47" s="124"/>
+      <c r="AO47" s="124"/>
+      <c r="AP47" s="124"/>
+      <c r="AQ47" s="121"/>
+      <c r="AR47" s="121"/>
+      <c r="AS47" s="121"/>
+      <c r="AT47" s="121"/>
+      <c r="AU47" s="121"/>
+      <c r="AV47" s="121"/>
+      <c r="AW47" s="125"/>
+      <c r="AX47" s="126"/>
+      <c r="AZ47" s="29"/>
       <c r="BA47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="64" t="s">
+    <row r="48" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="144" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="16"/>
@@ -8712,50 +8656,50 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="43"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="40"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="115"/>
-      <c r="T48" s="147"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="152"/>
-      <c r="W48" s="115"/>
-      <c r="X48" s="147"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="152"/>
-      <c r="AA48" s="115"/>
-      <c r="AB48" s="147"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="152"/>
-      <c r="AE48" s="115"/>
-      <c r="AF48" s="147"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="147"/>
-      <c r="AI48" s="115"/>
-      <c r="AJ48" s="147"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="152"/>
-      <c r="AM48" s="115"/>
-      <c r="AN48" s="147"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="152"/>
-      <c r="AQ48" s="142"/>
-      <c r="AR48" s="130"/>
-      <c r="AS48" s="134"/>
-      <c r="AT48" s="128"/>
-      <c r="AU48" s="112"/>
-      <c r="AV48" s="128"/>
-      <c r="AW48" s="110"/>
-      <c r="AX48" s="121"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="99"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="104"/>
+      <c r="AE48" s="70"/>
+      <c r="AF48" s="99"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="99"/>
+      <c r="AI48" s="70"/>
+      <c r="AJ48" s="99"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="104"/>
+      <c r="AM48" s="70"/>
+      <c r="AN48" s="99"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="104"/>
+      <c r="AQ48" s="94"/>
+      <c r="AR48" s="83"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="81"/>
+      <c r="AU48" s="67"/>
+      <c r="AV48" s="81"/>
+      <c r="AW48" s="65"/>
+      <c r="AX48" s="76"/>
     </row>
     <row r="49" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -8764,7 +8708,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="41"/>
+      <c r="K49" s="38"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -8772,39 +8716,39 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="140"/>
-      <c r="T49" s="95"/>
-      <c r="U49" s="141"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="140"/>
-      <c r="X49" s="95"/>
-      <c r="Y49" s="141"/>
-      <c r="Z49" s="96"/>
-      <c r="AA49" s="140"/>
-      <c r="AB49" s="95"/>
-      <c r="AC49" s="141"/>
-      <c r="AD49" s="96"/>
-      <c r="AE49" s="140"/>
-      <c r="AF49" s="95"/>
-      <c r="AG49" s="141"/>
-      <c r="AH49" s="95"/>
-      <c r="AI49" s="140"/>
-      <c r="AJ49" s="95"/>
-      <c r="AK49" s="141"/>
-      <c r="AL49" s="96"/>
-      <c r="AM49" s="140"/>
-      <c r="AN49" s="95"/>
-      <c r="AO49" s="141"/>
-      <c r="AP49" s="96"/>
-      <c r="AQ49" s="143"/>
-      <c r="AR49" s="122"/>
-      <c r="AS49" s="118"/>
-      <c r="AT49" s="122"/>
-      <c r="AU49" s="37"/>
-      <c r="AV49" s="129"/>
-      <c r="AW49" s="106"/>
-      <c r="AX49" s="122"/>
-      <c r="AZ49" s="31"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="92"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="92"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="93"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="92"/>
+      <c r="AF49" s="60"/>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="92"/>
+      <c r="AJ49" s="60"/>
+      <c r="AK49" s="93"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="92"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="93"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="95"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="73"/>
+      <c r="AT49" s="77"/>
+      <c r="AU49" s="34"/>
+      <c r="AV49" s="82"/>
+      <c r="AW49" s="63"/>
+      <c r="AX49" s="77"/>
+      <c r="AZ49" s="30"/>
       <c r="BA49" s="2" t="s">
         <v>15</v>
       </c>
@@ -8822,33 +8766,24 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="W3:Z4"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI3:AL4"/>
-    <mergeCell ref="AM3:AP4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="B5:AX5"/>
-    <mergeCell ref="B38:AX38"/>
-    <mergeCell ref="B31:AX31"/>
-    <mergeCell ref="B28:AX28"/>
-    <mergeCell ref="B23:AX23"/>
-    <mergeCell ref="B10:AX10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="C2:J2"/>
@@ -8865,30 +8800,39 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="K2:R2"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B5:AX5"/>
+    <mergeCell ref="B38:AX38"/>
+    <mergeCell ref="B31:AX31"/>
+    <mergeCell ref="B28:AX28"/>
+    <mergeCell ref="B23:AX23"/>
+    <mergeCell ref="B10:AX10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AM3:AP4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="W3:Z4"/>
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI3:AL4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="R9 B5 C6 B10 C13:H15 B47 C9:D9 E8 C18:H18 B23 B28 B31 C32:H32 B38 I8 U40:X40 U44:X44 U48:X48 S18:X18 R13:X15 W34:AV34 O34:R34 K19:R19 K9 K18:N18 K13:N15 K32:N32 K40:N40 K44:N44 K48:N48">
@@ -11922,17 +11866,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100633AEA9494B9C746854E57A48FF1CC55" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a0b0d3faa4249bd7786d738be4d9c6a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f045b350-d315-4c7d-ac38-fb7b310590b3" xmlns:ns3="f76131e0-297b-4576-8ecb-ba60de597da6" xmlns:ns4="09d37968-56c7-4393-96a9-3b9c6b61c150" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3131661d375c9c9fefb9a269fb246d0a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
@@ -12180,6 +12113,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12190,17 +12134,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
-    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F32C705-83F6-4438-85DD-FACD821B74B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12220,6 +12153,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
+    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11451F8-52DA-4F4F-B5A5-618910EF1B9A}">
   <ds:schemaRefs>

--- a/90_Vorlagen_Rondo/Vorlage Terminplan.xlsx
+++ b/90_Vorlagen_Rondo/Vorlage Terminplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Pflanzenwagen\90_Vorlagen_Rondo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyder_j\OneDrive - Rondo\Documents\GitHub\Pflanzenwagen\90_Vorlagen_Rondo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E8909-933B-401C-9807-2758E8B9B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26283828-577B-4B7A-891D-70775EE6F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Mo</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>KW 52</t>
   </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="56">
     <border>
@@ -1011,7 +1020,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,11 +1043,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1046,94 +1053,37 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1141,23 +1091,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1175,25 +1112,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,95 +1228,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6145,8 +6151,8 @@
   </sheetPr>
   <dimension ref="B1:BF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6160,660 +6166,660 @@
   <sheetData>
     <row r="1" spans="2:50" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="117" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="117" t="s">
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="117" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="117" t="s">
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="117" t="s">
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="117" t="s">
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="118"/>
-      <c r="AS2" s="118"/>
-      <c r="AT2" s="119"/>
-      <c r="AU2" s="117" t="s">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="118"/>
-      <c r="AW2" s="118"/>
-      <c r="AX2" s="119"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="70"/>
     </row>
     <row r="3" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135"/>
-      <c r="C3" s="133" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="136" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="134" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="137"/>
-      <c r="O3" s="134" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="134" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="138"/>
-      <c r="S3" s="109" t="s">
+      <c r="R3" s="73"/>
+      <c r="S3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="109" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="109" t="s">
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="109" t="s">
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="109" t="s">
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="109" t="s">
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="110"/>
-      <c r="AO3" s="110"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="109" t="s">
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="AR3" s="109" t="s">
+      <c r="AR3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="AS3" s="109" t="s">
+      <c r="AS3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="AT3" s="109" t="s">
+      <c r="AT3" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="AU3" s="109" t="s">
+      <c r="AU3" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="109" t="s">
+      <c r="AV3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="109" t="s">
+      <c r="AW3" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="AX3" s="115" t="s">
+      <c r="AX3" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:50" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135"/>
-      <c r="C4" s="129">
+      <c r="B4" s="71"/>
+      <c r="C4" s="59">
         <v>12</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="131">
+      <c r="D4" s="59"/>
+      <c r="E4" s="54">
         <v>13</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131">
+      <c r="F4" s="54"/>
+      <c r="G4" s="54">
         <v>14</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54">
         <v>15</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="129">
+      <c r="J4" s="54"/>
+      <c r="K4" s="59">
         <v>20</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="131">
+      <c r="L4" s="58"/>
+      <c r="M4" s="54">
         <v>21</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="131">
+      <c r="N4" s="58"/>
+      <c r="O4" s="54">
         <v>22</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="131">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="54">
         <v>23</v>
       </c>
-      <c r="R4" s="141"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="116"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="86"/>
     </row>
     <row r="5" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122"/>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="123"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="77"/>
     </row>
     <row r="6" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="76"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="98"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="99"/>
+      <c r="AX6" s="35"/>
     </row>
     <row r="7" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="143"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="77"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="109"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="36"/>
     </row>
     <row r="8" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="76"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="35"/>
     </row>
     <row r="9" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="128"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="77"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="109"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="109"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="109"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="112"/>
+      <c r="AS9" s="123"/>
+      <c r="AT9" s="112"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="112"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="36"/>
     </row>
     <row r="10" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="124"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="127"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="63"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="78"/>
     </row>
     <row r="11" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="76"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="88"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="35"/>
     </row>
     <row r="12" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="128"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="77"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="110"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="109"/>
+      <c r="AP12" s="110"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="112"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="112"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="112"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="36"/>
     </row>
     <row r="13" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="52" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="8"/>
@@ -6822,102 +6828,102 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="70"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="76"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="35"/>
     </row>
     <row r="14" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="128"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="77"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="109"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="36"/>
     </row>
     <row r="15" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8"/>
@@ -6926,102 +6932,102 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="76"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="96"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="97"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="35"/>
     </row>
     <row r="16" spans="2:50" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="128"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="77"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="109"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="112"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="36"/>
     </row>
     <row r="17" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="52" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="8"/>
@@ -7030,102 +7036,102 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="76"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="93"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="97"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="35"/>
     </row>
     <row r="18" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="128"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="77"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="109"/>
+      <c r="AP18" s="110"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="36"/>
     </row>
     <row r="19" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="8"/>
@@ -7134,312 +7140,312 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="97"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="81"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="81"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="76"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="96"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="97"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="35"/>
     </row>
     <row r="20" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="128"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="75"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="77"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="109"/>
+      <c r="AP20" s="110"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="112"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="112"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="36"/>
     </row>
     <row r="21" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="99"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="99"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="76"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="88"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="124"/>
+      <c r="AU21" s="93"/>
+      <c r="AV21" s="97"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="35"/>
     </row>
     <row r="22" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="144"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="93"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="86"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="63"/>
-      <c r="AX22" s="77"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="110"/>
+      <c r="AM22" s="107"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="109"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="123"/>
+      <c r="AT22" s="112"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="36"/>
     </row>
     <row r="23" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="121"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
-      <c r="AX23" s="127"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
+      <c r="AX23" s="78"/>
     </row>
     <row r="24" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="99"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="85"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="70"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="62"/>
-      <c r="AX24" s="76"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="44"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="35"/>
     </row>
     <row r="25" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="128"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7447,50 +7453,50 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="95"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="77"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="45"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="36"/>
     </row>
     <row r="26" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="52" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="8"/>
@@ -7500,368 +7506,368 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="104"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="99"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="76"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="35"/>
       <c r="AY26" s="2"/>
       <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
     </row>
     <row r="27" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="128"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="61"/>
-      <c r="AM27" s="92"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="93"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="96"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="77"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="77"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="36"/>
     </row>
     <row r="28" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="124"/>
-      <c r="AN28" s="124"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="121"/>
-      <c r="AR28" s="121"/>
-      <c r="AS28" s="121"/>
-      <c r="AT28" s="121"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
-      <c r="AX28" s="127"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="78"/>
     </row>
     <row r="29" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="104"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="99"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="76"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="76"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="76"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="35"/>
     </row>
     <row r="30" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="145"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="61"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="61"/>
-      <c r="AM30" s="92"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="61"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="86"/>
-      <c r="AT30" s="77"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="63"/>
-      <c r="AX30" s="77"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="36"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="36"/>
     </row>
     <row r="31" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="124"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="124"/>
-      <c r="AK31" s="124"/>
-      <c r="AL31" s="124"/>
-      <c r="AM31" s="124"/>
-      <c r="AN31" s="124"/>
-      <c r="AO31" s="124"/>
-      <c r="AP31" s="124"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
-      <c r="AU31" s="124"/>
-      <c r="AV31" s="124"/>
-      <c r="AW31" s="124"/>
-      <c r="AX31" s="127"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="78"/>
     </row>
     <row r="32" spans="2:58" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="104"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="99"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="99"/>
-      <c r="AO32" s="99"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="76"/>
-      <c r="AS32" s="65"/>
-      <c r="AT32" s="76"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="76"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="76"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="96"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="97"/>
+      <c r="AS32" s="128"/>
+      <c r="AT32" s="97"/>
+      <c r="AU32" s="99"/>
+      <c r="AV32" s="97"/>
+      <c r="AW32" s="99"/>
+      <c r="AX32" s="35"/>
     </row>
     <row r="33" spans="2:53" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="128"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -7870,49 +7876,49 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="38"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="100"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="95"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="77"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="78"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="107"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="107"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="110"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="112"/>
+      <c r="AS33" s="113"/>
+      <c r="AT33" s="112"/>
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="112"/>
+      <c r="AW33" s="129"/>
+      <c r="AX33" s="37"/>
     </row>
     <row r="34" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="8"/>
@@ -7922,50 +7928,50 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="104"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="99"/>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="99"/>
-      <c r="AR34" s="76"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="76"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="76"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="76"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="119"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="96"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="96"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="97"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="97"/>
+      <c r="AW34" s="99"/>
+      <c r="AX34" s="35"/>
     </row>
     <row r="35" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="128"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -7974,49 +7980,49 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="38"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="93"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="93"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="92"/>
-      <c r="AN35" s="101"/>
-      <c r="AO35" s="93"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="95"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="77"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="77"/>
-      <c r="AW35" s="63"/>
-      <c r="AX35" s="77"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="107"/>
+      <c r="AJ35" s="108"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="110"/>
+      <c r="AM35" s="107"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="109"/>
+      <c r="AP35" s="110"/>
+      <c r="AQ35" s="111"/>
+      <c r="AR35" s="112"/>
+      <c r="AS35" s="113"/>
+      <c r="AT35" s="112"/>
+      <c r="AU35" s="113"/>
+      <c r="AV35" s="112"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="36"/>
     </row>
     <row r="36" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="8"/>
@@ -8026,207 +8032,207 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="47"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="47"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="97"/>
-      <c r="AO36" s="97"/>
-      <c r="AP36" s="47"/>
-      <c r="AQ36" s="97"/>
-      <c r="AR36" s="81"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="81"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="81"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="76"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="96"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="97"/>
+      <c r="AS36" s="99"/>
+      <c r="AT36" s="97"/>
+      <c r="AU36" s="99"/>
+      <c r="AV36" s="97"/>
+      <c r="AW36" s="99"/>
+      <c r="AX36" s="35"/>
     </row>
     <row r="37" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="128"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="92"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="92"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="92"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="93"/>
-      <c r="AL37" s="61"/>
-      <c r="AM37" s="92"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="82"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="82"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="82"/>
-      <c r="AW37" s="63"/>
-      <c r="AX37" s="77"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="107"/>
+      <c r="AJ37" s="108"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="110"/>
+      <c r="AM37" s="107"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="109"/>
+      <c r="AP37" s="110"/>
+      <c r="AQ37" s="100"/>
+      <c r="AR37" s="112"/>
+      <c r="AS37" s="103"/>
+      <c r="AT37" s="112"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="112"/>
+      <c r="AW37" s="114"/>
+      <c r="AX37" s="36"/>
     </row>
     <row r="38" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="124"/>
-      <c r="AO38" s="124"/>
-      <c r="AP38" s="124"/>
-      <c r="AQ38" s="121"/>
-      <c r="AR38" s="121"/>
-      <c r="AS38" s="121"/>
-      <c r="AT38" s="121"/>
-      <c r="AU38" s="125"/>
-      <c r="AV38" s="125"/>
-      <c r="AW38" s="125"/>
-      <c r="AX38" s="126"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="64"/>
+      <c r="AK38" s="64"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="64"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="63"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="66"/>
     </row>
     <row r="39" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="99"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="104"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="99"/>
-      <c r="AK39" s="46"/>
-      <c r="AL39" s="104"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="97"/>
-      <c r="AO39" s="97"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="90"/>
-      <c r="AR39" s="83"/>
-      <c r="AS39" s="68"/>
-      <c r="AT39" s="83"/>
-      <c r="AU39" s="68"/>
-      <c r="AV39" s="83"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="76"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="131"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="95"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="93"/>
+      <c r="AB39" s="94"/>
+      <c r="AC39" s="95"/>
+      <c r="AD39" s="96"/>
+      <c r="AE39" s="93"/>
+      <c r="AF39" s="94"/>
+      <c r="AG39" s="95"/>
+      <c r="AH39" s="96"/>
+      <c r="AI39" s="93"/>
+      <c r="AJ39" s="94"/>
+      <c r="AK39" s="95"/>
+      <c r="AL39" s="96"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="94"/>
+      <c r="AO39" s="94"/>
+      <c r="AP39" s="96"/>
+      <c r="AQ39" s="132"/>
+      <c r="AR39" s="133"/>
+      <c r="AS39" s="134"/>
+      <c r="AT39" s="133"/>
+      <c r="AU39" s="134"/>
+      <c r="AV39" s="133"/>
+      <c r="AW39" s="128"/>
+      <c r="AX39" s="35"/>
     </row>
     <row r="40" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="128"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -8235,49 +8241,49 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="38"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="93"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="93"/>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="92"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="93"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="95"/>
-      <c r="AR40" s="77"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="77"/>
-      <c r="AU40" s="69"/>
-      <c r="AV40" s="82"/>
-      <c r="AW40" s="63"/>
-      <c r="AX40" s="77"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="110"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="110"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="109"/>
+      <c r="AL40" s="110"/>
+      <c r="AM40" s="107"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="109"/>
+      <c r="AP40" s="110"/>
+      <c r="AQ40" s="111"/>
+      <c r="AR40" s="112"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="112"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="112"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="36"/>
     </row>
     <row r="41" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="128" t="s">
+      <c r="B41" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="8"/>
@@ -8287,50 +8293,50 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="13"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="99"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="70"/>
-      <c r="AB41" s="99"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="70"/>
-      <c r="AF41" s="99"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="104"/>
-      <c r="AI41" s="70"/>
-      <c r="AJ41" s="99"/>
-      <c r="AK41" s="46"/>
-      <c r="AL41" s="104"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="76"/>
-      <c r="AS41" s="70"/>
-      <c r="AT41" s="76"/>
-      <c r="AU41" s="70"/>
-      <c r="AV41" s="76"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="76"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="96"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="96"/>
+      <c r="AI41" s="93"/>
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="95"/>
+      <c r="AL41" s="96"/>
+      <c r="AM41" s="99"/>
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="94"/>
+      <c r="AP41" s="96"/>
+      <c r="AQ41" s="95"/>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="93"/>
+      <c r="AT41" s="97"/>
+      <c r="AU41" s="93"/>
+      <c r="AV41" s="97"/>
+      <c r="AW41" s="99"/>
+      <c r="AX41" s="35"/>
     </row>
     <row r="42" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="128"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -8339,49 +8345,49 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="38"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="93"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="93"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="92"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="93"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="92"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="92"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="93"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="92"/>
-      <c r="AN42" s="60"/>
-      <c r="AO42" s="102"/>
-      <c r="AP42" s="61"/>
-      <c r="AQ42" s="95"/>
-      <c r="AR42" s="77"/>
-      <c r="AS42" s="73"/>
-      <c r="AT42" s="77"/>
-      <c r="AU42" s="69"/>
-      <c r="AV42" s="84"/>
-      <c r="AW42" s="63"/>
-      <c r="AX42" s="77"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="108"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="108"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="110"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="108"/>
+      <c r="AK42" s="109"/>
+      <c r="AL42" s="110"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="108"/>
+      <c r="AO42" s="109"/>
+      <c r="AP42" s="110"/>
+      <c r="AQ42" s="111"/>
+      <c r="AR42" s="112"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="112"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="112"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="36"/>
     </row>
     <row r="43" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="8"/>
@@ -8391,50 +8397,50 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="13"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="99"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="104"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="99"/>
-      <c r="AK43" s="46"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="99"/>
-      <c r="AO43" s="46"/>
-      <c r="AP43" s="104"/>
-      <c r="AQ43" s="97"/>
-      <c r="AR43" s="81"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="81"/>
-      <c r="AU43" s="70"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="76"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="93"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="95"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="93"/>
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="93"/>
+      <c r="AN43" s="94"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="96"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="97"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="97"/>
+      <c r="AU43" s="93"/>
+      <c r="AV43" s="97"/>
+      <c r="AW43" s="99"/>
+      <c r="AX43" s="35"/>
     </row>
     <row r="44" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="128"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -8443,49 +8449,49 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="38"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="61"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="93"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="92"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="93"/>
-      <c r="AL44" s="61"/>
-      <c r="AM44" s="92"/>
-      <c r="AN44" s="60"/>
-      <c r="AO44" s="93"/>
-      <c r="AP44" s="61"/>
-      <c r="AQ44" s="95"/>
-      <c r="AR44" s="77"/>
-      <c r="AS44" s="73"/>
-      <c r="AT44" s="77"/>
-      <c r="AU44" s="69"/>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="79"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="108"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="110"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="108"/>
+      <c r="AG44" s="109"/>
+      <c r="AH44" s="110"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="108"/>
+      <c r="AK44" s="109"/>
+      <c r="AL44" s="110"/>
+      <c r="AM44" s="107"/>
+      <c r="AN44" s="108"/>
+      <c r="AO44" s="109"/>
+      <c r="AP44" s="110"/>
+      <c r="AQ44" s="111"/>
+      <c r="AR44" s="112"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="112"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="112"/>
+      <c r="AW44" s="136"/>
+      <c r="AX44" s="38"/>
     </row>
     <row r="45" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="8"/>
@@ -8495,211 +8501,215 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="13"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="12"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="70"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="70"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="70"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="104"/>
-      <c r="AI45" s="70"/>
-      <c r="AJ45" s="99"/>
-      <c r="AK45" s="46"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="99"/>
-      <c r="AO45" s="46"/>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="91"/>
-      <c r="AR45" s="83"/>
-      <c r="AS45" s="71"/>
-      <c r="AT45" s="81"/>
-      <c r="AU45" s="71"/>
-      <c r="AV45" s="81"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="80"/>
-    </row>
-    <row r="46" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="92"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="93"/>
-      <c r="AD46" s="61"/>
-      <c r="AE46" s="92"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="93"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="92"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="93"/>
-      <c r="AL46" s="61"/>
-      <c r="AM46" s="92"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="93"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="96"/>
-      <c r="AR46" s="77"/>
-      <c r="AS46" s="86"/>
-      <c r="AT46" s="77"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="63"/>
-      <c r="AX46" s="77"/>
-    </row>
-    <row r="47" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="121"/>
-      <c r="S47" s="124"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="124"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="124"/>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="124"/>
-      <c r="AG47" s="124"/>
-      <c r="AH47" s="124"/>
-      <c r="AI47" s="124"/>
-      <c r="AJ47" s="124"/>
-      <c r="AK47" s="124"/>
-      <c r="AL47" s="124"/>
-      <c r="AM47" s="124"/>
-      <c r="AN47" s="124"/>
-      <c r="AO47" s="124"/>
-      <c r="AP47" s="124"/>
-      <c r="AQ47" s="121"/>
-      <c r="AR47" s="121"/>
-      <c r="AS47" s="121"/>
-      <c r="AT47" s="121"/>
-      <c r="AU47" s="121"/>
-      <c r="AV47" s="121"/>
-      <c r="AW47" s="125"/>
-      <c r="AX47" s="126"/>
-      <c r="AZ47" s="29"/>
-      <c r="BA47" s="2" t="s">
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="93"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="94"/>
+      <c r="W45" s="93"/>
+      <c r="X45" s="94"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="94"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="96"/>
+      <c r="AI45" s="93"/>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="95"/>
+      <c r="AP45" s="96"/>
+      <c r="AQ45" s="137"/>
+      <c r="AR45" s="133"/>
+      <c r="AS45" s="99"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="99"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="99"/>
+      <c r="AX45" s="39"/>
+      <c r="AZ45" s="16"/>
+      <c r="BA45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="46" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="53"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="107"/>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="109"/>
+      <c r="AH46" s="110"/>
+      <c r="AI46" s="107"/>
+      <c r="AJ46" s="108"/>
+      <c r="AK46" s="109"/>
+      <c r="AL46" s="110"/>
+      <c r="AM46" s="107"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="109"/>
+      <c r="AP46" s="110"/>
+      <c r="AQ46" s="100"/>
+      <c r="AR46" s="112"/>
+      <c r="AS46" s="123"/>
+      <c r="AT46" s="112"/>
+      <c r="AU46" s="136"/>
+      <c r="AV46" s="112"/>
+      <c r="AW46" s="114"/>
+      <c r="AX46" s="36"/>
+    </row>
+    <row r="47" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="64"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="64"/>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="64"/>
+      <c r="AK47" s="64"/>
+      <c r="AL47" s="64"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="63"/>
+      <c r="AR47" s="63"/>
+      <c r="AS47" s="63"/>
+      <c r="AT47" s="63"/>
+      <c r="AU47" s="63"/>
+      <c r="AV47" s="63"/>
+      <c r="AW47" s="65"/>
+      <c r="AX47" s="66"/>
+      <c r="AZ47" s="17"/>
+      <c r="BA47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="48" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="99"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="99"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="99"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="104"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="99"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="99"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="99"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="104"/>
-      <c r="AM48" s="70"/>
-      <c r="AN48" s="99"/>
-      <c r="AO48" s="46"/>
-      <c r="AP48" s="104"/>
-      <c r="AQ48" s="94"/>
-      <c r="AR48" s="83"/>
-      <c r="AS48" s="87"/>
-      <c r="AT48" s="81"/>
-      <c r="AU48" s="67"/>
-      <c r="AV48" s="81"/>
-      <c r="AW48" s="65"/>
-      <c r="AX48" s="76"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="33"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="48"/>
+      <c r="AM48" s="33"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="48"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="133"/>
+      <c r="AS48" s="128"/>
+      <c r="AT48" s="97"/>
+      <c r="AU48" s="127"/>
+      <c r="AV48" s="97"/>
+      <c r="AW48" s="128"/>
+      <c r="AX48" s="35"/>
     </row>
     <row r="49" spans="2:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="146"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -8708,7 +8718,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="38"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -8716,41 +8726,41 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="92"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="92"/>
-      <c r="AB49" s="60"/>
-      <c r="AC49" s="93"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="92"/>
-      <c r="AF49" s="60"/>
-      <c r="AG49" s="93"/>
-      <c r="AH49" s="60"/>
-      <c r="AI49" s="92"/>
-      <c r="AJ49" s="60"/>
-      <c r="AK49" s="93"/>
-      <c r="AL49" s="61"/>
-      <c r="AM49" s="92"/>
-      <c r="AN49" s="60"/>
-      <c r="AO49" s="93"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="95"/>
-      <c r="AR49" s="77"/>
-      <c r="AS49" s="73"/>
-      <c r="AT49" s="77"/>
-      <c r="AU49" s="34"/>
-      <c r="AV49" s="82"/>
-      <c r="AW49" s="63"/>
-      <c r="AX49" s="77"/>
-      <c r="AZ49" s="30"/>
-      <c r="BA49" s="2" t="s">
-        <v>15</v>
+      <c r="S49" s="42"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="43"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="45"/>
+      <c r="AR49" s="112"/>
+      <c r="AS49" s="113"/>
+      <c r="AT49" s="112"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="112"/>
+      <c r="AW49" s="114"/>
+      <c r="AX49" s="36"/>
+      <c r="AZ49" s="87"/>
+      <c r="BA49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:53" x14ac:dyDescent="0.2">
@@ -8766,26 +8776,37 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="W3:Z4"/>
+    <mergeCell ref="AA3:AD4"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI3:AL4"/>
+    <mergeCell ref="AM3:AP4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="B31:AX31"/>
+    <mergeCell ref="B28:AX28"/>
+    <mergeCell ref="B23:AX23"/>
+    <mergeCell ref="B10:AX10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="B47:AX47"/>
     <mergeCell ref="C3:D3"/>
@@ -8802,37 +8823,26 @@
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="B5:AX5"/>
     <mergeCell ref="B38:AX38"/>
-    <mergeCell ref="B31:AX31"/>
-    <mergeCell ref="B28:AX28"/>
-    <mergeCell ref="B23:AX23"/>
-    <mergeCell ref="B10:AX10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AM3:AP4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="S3:V4"/>
-    <mergeCell ref="W3:Z4"/>
-    <mergeCell ref="AA3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI3:AL4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="R9 B5 C6 B10 C13:H15 B47 C9:D9 E8 C18:H18 B23 B28 B31 C32:H32 B38 I8 U40:X40 U44:X44 U48:X48 S18:X18 R13:X15 W34:AV34 O34:R34 K19:R19 K9 K18:N18 K13:N15 K32:N32 K40:N40 K44:N44 K48:N48">
@@ -8845,7 +8855,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26 S26:T26 Q8:T8 R24:R26 B8:C8 C11:H12 B11 B17 B24:H24 C27:H27 B26:H26 C25:H25 B32 B34 B36 B39 B41 B43 B48 C49:H49 E9:J9 B13 U26:X27 U49:X49 U6:X8 U39:X39 U35:X35 U43:X43 R11:X12 S24:X25 S33:X33 S41:X42 U37:X37 B15 BA47 W34:AV34 O34:R34 Q29:AV30 Q22:X22 K6:N8 K24:N27 K19:R19 C36:P37 B21:X21 C16:X17 C46:AT46 B45:AR45 C30:N30 B29:N29 C22:L22 K11:N12 K49:N49 K39:N39 K33:N35 K41:N43">
+  <conditionalFormatting sqref="Q26 S26:T26 Q8:T8 R24:R26 B8:C8 C11:H12 B11 B17 B24:H24 C27:H27 B26:H26 C25:H25 B32 B34 B36 B39 B41 B43 B48 C49:H49 E9:J9 B13 U26:X27 U49:X49 U6:X8 U39:X39 U35:X35 U43:X43 R11:X12 S24:X25 S33:X33 S41:X42 U37:X37 B15 BA45 W34:AV34 O34:R34 Q29:AV30 Q22:X22 K6:N8 K24:N27 K19:R19 C36:P37 B21:X21 C16:X17 C46:AT46 B45:AR45 C30:N30 B29:N29 C22:L22 K11:N12 K49:N49 K39:N39 K33:N35 K41:N43">
     <cfRule type="cellIs" dxfId="647" priority="678" operator="equal">
       <formula>" "</formula>
     </cfRule>
@@ -8855,7 +8865,7 @@
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 M4 Q4 B4:B5 C6 B8:C8 C9:D9 B10:B11 B17 B23:B24 B26:H26 B28:B29 B31:B32 B38:B39 B45 B47:B48 C24:H25 B13 B15 Y46:AT46 Y45:AR45 BA47 W34:AV34 S18:AV18 Q29:AV30 S35:X35 S39:X42 Q22:AV22 S44:AT44 E8:J9 K6:AV9 C48:X49 C37:X37 B36:P36 C35:P35 C32:N32 I24:AV26 C11:AV17 B34:R34 C39:P40 B43:X43 B41:N41 B21:AV21 C18:N18 C29:N30 C33:X33 C42:P42 C22:L22 C27:X27 C45:X46 C44:P44 B19:AV19">
+  <conditionalFormatting sqref="K4 M4 Q4 B4:B5 C6 B8:C8 C9:D9 B10:B11 B17 B23:B24 B26:H26 B28:B29 B31:B32 B38:B39 B45 B47:B48 C24:H25 B13 B15 Y46:AT46 Y45:AR45 BA45 W34:AV34 S18:AV18 Q29:AV30 S35:X35 S39:X42 Q22:AV22 S44:AT44 E8:J9 K6:AV9 C48:X49 C37:X37 B36:P36 C35:P35 C32:N32 I24:AV26 C11:AV17 B34:R34 C39:P40 B43:X43 B41:N41 B21:AV21 C18:N18 C29:N30 C33:X33 C42:P42 C22:L22 C27:X27 C45:X46 C44:P44 B19:AV19">
     <cfRule type="cellIs" dxfId="645" priority="675" operator="equal">
       <formula>"a"</formula>
     </cfRule>
@@ -8863,12 +8873,12 @@
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ47">
+  <conditionalFormatting sqref="AZ45">
     <cfRule type="cellIs" dxfId="643" priority="674" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ47">
+  <conditionalFormatting sqref="AZ45">
     <cfRule type="cellIs" dxfId="642" priority="672" operator="equal">
       <formula>"a"</formula>
     </cfRule>
@@ -11866,6 +11876,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100633AEA9494B9C746854E57A48FF1CC55" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a0b0d3faa4249bd7786d738be4d9c6a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f045b350-d315-4c7d-ac38-fb7b310590b3" xmlns:ns3="f76131e0-297b-4576-8ecb-ba60de597da6" xmlns:ns4="09d37968-56c7-4393-96a9-3b9c6b61c150" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3131661d375c9c9fefb9a269fb246d0a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
@@ -12113,17 +12134,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12134,6 +12144,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
+    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F32C705-83F6-4438-85DD-FACD821B74B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12153,17 +12174,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
-    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11451F8-52DA-4F4F-B5A5-618910EF1B9A}">
   <ds:schemaRefs>
